--- a/biology/Histoire de la zoologie et de la botanique/Vratislav_Mazák/Vratislav_Mazák.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Vratislav_Mazák/Vratislav_Mazák.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vratislav_Maz%C3%A1k</t>
+          <t>Vratislav_Mazák</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vratislav Mazák, né le 22 juin 1937 à Kutná Hora et mort le 9 septembre 1987 à Prague, est un biologiste tchécoslovaque. Spécialiste en paléoanthropologie, en mammalogie et en taxinomie, il était également peintre. Professeur à l'université Charles de Prague, il travailla également en tant que zoologiste au musée national de Prague.
-Découvreur d'Homo ergaster (Groves et Mazák, 1975) et de Panthera tigris corbetti, il est également considéré par l'UICN comme le découvreur du tigre depuis 2008[1].
+Découvreur d'Homo ergaster (Groves et Mazák, 1975) et de Panthera tigris corbetti, il est également considéré par l'UICN comme le découvreur du tigre depuis 2008.
 </t>
         </is>
       </c>
